--- a/biology/Médecine/Sillon_bicipital_médial/Sillon_bicipital_médial.xlsx
+++ b/biology/Médecine/Sillon_bicipital_médial/Sillon_bicipital_médial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sillon_bicipital_m%C3%A9dial</t>
+          <t>Sillon_bicipital_médial</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sillon bicipital médial (ou gouttière bicipitale interne ou sillon bicipital interne ou sillon bicipital ulnaire) est une dépression linéaire de la face médiale du bras qui part du pli du coude oblique en haut et en interne.
 Il est formé par le muscle biceps brachial en avant, le muscle triceps brachial en arrière et les muscles épitrochléens en dedans.
